--- a/data/trans_camb/P22_R4-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P22_R4-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-3.051620601669563</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-2.645103998772065</v>
+        <v>-2.645103998772066</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.679715839610584</v>
+        <v>-4.741003042269186</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.786112111392152</v>
+        <v>-4.977964410300497</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.762850225756239</v>
+        <v>-4.777132704014623</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.468593302868054</v>
+        <v>-3.351404357996258</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.496365012883849</v>
+        <v>-4.431732071396786</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.796178730786058</v>
+        <v>-3.896385667906228</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.434734054123702</v>
+        <v>-3.50856680715172</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.221001996886721</v>
+        <v>-4.119274898702645</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.759381343521683</v>
+        <v>-3.817533316090716</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.296738196183764</v>
+        <v>-1.333243484813372</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.449460808187867</v>
+        <v>-1.441498585017924</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.227816430439834</v>
+        <v>-1.103978281864467</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.210777511756556</v>
+        <v>-0.1692636355061409</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-1.372861141087568</v>
+        <v>-1.433609562824717</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.9645856887778201</v>
+        <v>-0.9177242977309951</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.047379322556074</v>
+        <v>-1.25290347354791</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.913997997263747</v>
+        <v>-1.951474051303177</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.580407504474627</v>
+        <v>-1.581104002335417</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.5998592297797896</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.5199499723270852</v>
+        <v>-0.5199499723270854</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7481737956695965</v>
+        <v>-0.7532408031973863</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7868286336978891</v>
+        <v>-0.7880841929671956</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7653650856672448</v>
+        <v>-0.7693784924196569</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5750744594679428</v>
+        <v>-0.5757945305276682</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7695312316575468</v>
+        <v>-0.7763887414374168</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.647842861320582</v>
+        <v>-0.6676587702164574</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5995911658437214</v>
+        <v>-0.5960337874075909</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7343605932853724</v>
+        <v>-0.7293120003161891</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6590627212985032</v>
+        <v>-0.6777429106602519</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.284682840582319</v>
+        <v>-0.3116252585345948</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3183824172562348</v>
+        <v>-0.3086471035132099</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2553435533003575</v>
+        <v>-0.2506711984260267</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.03933232479375399</v>
+        <v>-0.04075939222880635</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2812773466171652</v>
+        <v>-0.3317727361265096</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2055045258478375</v>
+        <v>-0.2152063154096426</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2356714497611489</v>
+        <v>-0.2599165846926836</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.4086188333461915</v>
+        <v>-0.419218451959024</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3423685695555504</v>
+        <v>-0.3445294467211518</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-3.13192609063332</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.431266625089007</v>
+        <v>1.431266625089009</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.845683381910986</v>
+        <v>-1.929219608581122</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.564078057907596</v>
+        <v>-4.58319749349556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1892203429201011</v>
+        <v>-0.1320592941604219</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.377450981254169</v>
+        <v>-3.610146893797789</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.239722153290478</v>
+        <v>-5.235625537831146</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.090879067770863</v>
+        <v>-0.9786785547262764</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.942269144077514</v>
+        <v>-2.080345985167188</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.431539089975626</v>
+        <v>-4.459114431618104</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.02101116580552269</v>
+        <v>0.06369177889222606</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.312031349575273</v>
+        <v>2.191909144637247</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.9460645113642027</v>
+        <v>-0.8915108319861484</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.951766478728103</v>
+        <v>4.01340083304643</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4219745463156477</v>
+        <v>0.3239575327259349</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.74695586048753</v>
+        <v>-1.623752476266704</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.758139306737136</v>
+        <v>2.615476573800664</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8203187160991197</v>
+        <v>0.7928604132205119</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.885392090370702</v>
+        <v>-1.856412063105014</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.822266379654105</v>
+        <v>3.000717496595234</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.347229193377517</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1586811250827829</v>
+        <v>0.158681125082783</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1824520501515143</v>
+        <v>-0.1968286809384557</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.458729866450118</v>
+        <v>-0.4575317352255148</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01958775799996738</v>
+        <v>-0.009219513302399901</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.337743557653671</v>
+        <v>-0.356295208227529</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5191459211157088</v>
+        <v>-0.5161898010996339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1050352193637432</v>
+        <v>-0.09478257587945924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2010326002714513</v>
+        <v>-0.2138463290989764</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.451593718161551</v>
+        <v>-0.4524365233740297</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.002197292688311752</v>
+        <v>0.001272471515500534</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2933830190786332</v>
+        <v>0.2761566250847906</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1149734256308123</v>
+        <v>-0.1200692928810134</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.505113667205086</v>
+        <v>0.503559216535522</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.05204380895156004</v>
+        <v>0.04633701651433227</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2129155280944562</v>
+        <v>-0.180318940143515</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3516062575218576</v>
+        <v>0.3252791233439611</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09619087075649221</v>
+        <v>0.09443041830318723</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.222898087027879</v>
+        <v>-0.2249167427838283</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3358448661378635</v>
+        <v>0.3572832413588136</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.4530646408022865</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.935545888678563</v>
+        <v>7.935545888678558</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.543962947227596</v>
+        <v>-7.358814152755914</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.479211713724167</v>
+        <v>-6.705991188560977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2111039861668521</v>
+        <v>-0.5496163792522512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.821374110859452</v>
+        <v>-8.215578501299985</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.498769059978447</v>
+        <v>-3.061404953515618</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.636071016387239</v>
+        <v>5.967088897708306</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.431236507833972</v>
+        <v>-6.225189851863493</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.35979590457991</v>
+        <v>-3.198172572487521</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.284068876898491</v>
+        <v>3.986749295106144</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.065084012280763</v>
+        <v>3.937910711911134</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.254749559621398</v>
+        <v>4.023490268748973</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.34513782768758</v>
+        <v>10.09012855543376</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.661595459327923</v>
+        <v>3.000612192998512</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.487299402861653</v>
+        <v>7.794413108131844</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.93451611860414</v>
+        <v>15.88457469348122</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.996586656125137</v>
+        <v>1.754630734950052</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.589361585149386</v>
+        <v>4.133142241752254</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.56969653295791</v>
+        <v>11.34777671101078</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.0183807018152119</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3219428081221282</v>
+        <v>0.3219428081221279</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2734682317659491</v>
+        <v>-0.2634690790248851</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2256267839257031</v>
+        <v>-0.2391718387583209</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.006791026317030555</v>
+        <v>-0.01617743453916023</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3340193350086757</v>
+        <v>-0.3227255768082105</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1393814328523824</v>
+        <v>-0.1158318486579371</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2082078247740134</v>
+        <v>0.2232442851547888</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2419703087932021</v>
+        <v>-0.2387891829186526</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1235642227661306</v>
+        <v>-0.1201875069251063</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1609970683309556</v>
+        <v>0.1467270375535406</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1812579914817589</v>
+        <v>0.1716380114161892</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1881682200099806</v>
+        <v>0.1774479874827043</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.446321172603077</v>
+        <v>0.4492063321901631</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1212734673266865</v>
+        <v>0.1425830222044271</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3589507158353372</v>
+        <v>0.3799010204147055</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7811820691797831</v>
+        <v>0.772830552033913</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08815119128115451</v>
+        <v>0.07866182557910116</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2043582284325933</v>
+        <v>0.180044698219733</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5040995078493172</v>
+        <v>0.5013311703074356</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-2.086262271144847</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>3.27148264727218</v>
+        <v>3.271482647272177</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.97406609962499</v>
+        <v>-2.818982559703372</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.839845729855407</v>
+        <v>-3.796638874742374</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.24251367093763</v>
+        <v>1.21152140887822</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.283840855797592</v>
+        <v>-3.223697930748526</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.26776716801646</v>
+        <v>-3.338095663772563</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.224903100539903</v>
+        <v>2.1581428977563</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.692628871744753</v>
+        <v>-2.631434976605562</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.206549747242168</v>
+        <v>-3.142564551944529</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.236224330334096</v>
+        <v>2.237464601668091</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1656785082945985</v>
+        <v>0.1447936180176456</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.885361326135357</v>
+        <v>-0.8775517933407962</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.380913535034944</v>
+        <v>4.672039889193663</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.3059428580987377</v>
+        <v>-0.508793967685491</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.4472217844404334</v>
+        <v>-0.4430504255814889</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.171545598237983</v>
+        <v>5.092580899981208</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.6010740081252484</v>
+        <v>-0.5367520247817112</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.123619668526952</v>
+        <v>-1.1225163933201</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.481890775047812</v>
+        <v>4.414789714315918</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.2075846354625053</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3255149374787104</v>
+        <v>0.3255149374787101</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2562303980642978</v>
+        <v>-0.2485175826412336</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3335441351976769</v>
+        <v>-0.3378135416356002</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1098246608074977</v>
+        <v>0.1043441018255514</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3182995743784166</v>
+        <v>-0.3150269717113904</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3143595046624443</v>
+        <v>-0.321751746549993</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2154751883546585</v>
+        <v>0.2056126229298837</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.255754523014694</v>
+        <v>-0.2511966924327749</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2968965313363733</v>
+        <v>-0.2946058994632036</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2076206207858188</v>
+        <v>0.2109517505617017</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.02155182768400601</v>
+        <v>0.01180309032516627</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.08779282890106636</v>
+        <v>-0.0901424807433721</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4487589298530587</v>
+        <v>0.476945125466042</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.03596130650105512</v>
+        <v>-0.05737919868088956</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.05066474464724006</v>
+        <v>-0.04743231052732362</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5884977130731647</v>
+        <v>0.5778186575932094</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.05946401060169969</v>
+        <v>-0.05688558421221258</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1161115066549048</v>
+        <v>-0.1152053186996524</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4670369984369351</v>
+        <v>0.4722585556736209</v>
       </c>
     </row>
     <row r="28">
